--- a/data/trans_bre/IP18A03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A03-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>20,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>22,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>-14,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>-15,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>36,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,03%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,29%</t>
+          <t>-24,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>-27,2%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 11,0</t>
+          <t>-4,98; 43,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 4,42</t>
+          <t>-4,12; 46,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 6,0</t>
+          <t>-43,7; 12,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 22,82</t>
+          <t>-71,92; 40,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 18,07</t>
+          <t>-5,83; 108,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 6,42</t>
+          <t>-5,58; 121,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 9,14</t>
+          <t>-66,61; 27,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 42,76</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-12,18</t>
+          <t>-17,38</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,13%</t>
+          <t>-42,43%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,57; 9,73</t>
+          <t>-40,86; 12,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,75; 12,2</t>
+          <t>-79,95; 63,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,78</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,3</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,45%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,26%</t>
+          <t>-4,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,61%</t>
+          <t>-2,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>20,36%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 1,35</t>
+          <t>-5,91; 11,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 7,24</t>
+          <t>-10,26; 4,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 6,67</t>
+          <t>-9,38; 6,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 31,26</t>
+          <t>-11,65; 21,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 2,26</t>
+          <t>-8,42; 18,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 12,46</t>
+          <t>-13,51; 6,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 11,47</t>
+          <t>-12,86; 9,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 64,3</t>
+          <t>-45,97; 153,03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,74</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,92</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-14,46</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-29,54</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
+          <t>-1,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>-1,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-24,38%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-40,95%</t>
+          <t>18,65%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 43,47</t>
+          <t>-10,07; 7,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 46,8</t>
+          <t>-9,78; 7,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,7; 12,75</t>
+          <t>-4,75; 12,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-76,21; 29,76</t>
+          <t>-18,13; 30,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 108,78</t>
+          <t>-14,7; 12,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 121,9</t>
+          <t>-13,51; 12,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-66,61; 27,02</t>
+          <t>-7,27; 23,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-86,75; 106,37</t>
+          <t>-33,03; 95,77</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-6,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,46</t>
+          <t>12,06</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>-10,45%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>-2,26%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>-3,61%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-10,57%</t>
+          <t>46,67%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 7,56</t>
+          <t>-14,62; 1,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 7,91</t>
+          <t>-9,49; 7,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 12,97</t>
+          <t>-10,13; 6,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 15,11</t>
+          <t>-9,31; 32,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 12,44</t>
+          <t>-21,09; 2,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 12,35</t>
+          <t>-14,88; 12,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 23,25</t>
+          <t>-15,04; 11,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-37,93; 26,37</t>
+          <t>-28,68; 212,41</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>15,9%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 9,86</t>
+          <t>-5,92; 16,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 15,73</t>
+          <t>-16,42; 61,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A03-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 43,47</t>
+          <t>-6,09; 43,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 46,8</t>
+          <t>-3,16; 46,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-43,7; 12,75</t>
+          <t>-41,69; 12,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 108,78</t>
+          <t>-7,01; 105,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 121,9</t>
+          <t>-4,1; 118,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-66,61; 27,02</t>
+          <t>-61,42; 25,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 6,77</t>
+          <t>-15,37; 5,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 11,73</t>
+          <t>-9,56; 11,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 15,88</t>
+          <t>-3,53; 16,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,86; 12,13</t>
+          <t>-43,51; 7,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,51; 11,67</t>
+          <t>-22,73; 9,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 20,53</t>
+          <t>-14,22; 20,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 26,86</t>
+          <t>-4,97; 26,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-79,95; 63,34</t>
+          <t>-83,91; 35,02</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 11,0</t>
+          <t>-4,89; 10,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 4,42</t>
+          <t>-10,18; 4,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 6,0</t>
+          <t>-9,01; 5,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 21,21</t>
+          <t>-11,23; 20,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 18,07</t>
+          <t>-6,91; 18,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 6,42</t>
+          <t>-13,41; 6,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 9,14</t>
+          <t>-12,41; 8,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-45,97; 153,03</t>
+          <t>-46,33; 147,28</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 7,56</t>
+          <t>-10,42; 9,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 7,91</t>
+          <t>-10,43; 7,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 12,97</t>
+          <t>-5,43; 14,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 30,73</t>
+          <t>-19,01; 31,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 12,44</t>
+          <t>-15,37; 15,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 12,35</t>
+          <t>-14,86; 11,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 23,25</t>
+          <t>-8,25; 24,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 95,77</t>
+          <t>-33,49; 93,58</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 1,35</t>
+          <t>-14,45; 1,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 7,24</t>
+          <t>-9,77; 6,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 6,67</t>
+          <t>-10,66; 6,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 32,13</t>
+          <t>-10,47; 31,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 2,26</t>
+          <t>-21,13; 3,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 12,46</t>
+          <t>-15,47; 11,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 11,47</t>
+          <t>-15,98; 10,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 212,41</t>
+          <t>-29,83; 212,37</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 2,73</t>
+          <t>-5,83; 2,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 3,46</t>
+          <t>-4,6; 3,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 4,43</t>
+          <t>-4,34; 4,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 16,06</t>
+          <t>-6,09; 15,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 4,34</t>
+          <t>-8,94; 4,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 5,46</t>
+          <t>-6,77; 5,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 7,0</t>
+          <t>-6,52; 6,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 61,62</t>
+          <t>-16,52; 62,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A03-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 43,77</t>
+          <t>-5,18; 42,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 46,46</t>
+          <t>-2,07; 47,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-41,69; 12,44</t>
+          <t>-40,48; 13,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-71,92; 40,72</t>
+          <t>-69,54; 44,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 105,79</t>
+          <t>-6,61; 111,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 118,04</t>
+          <t>-2,04; 121,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-61,42; 25,26</t>
+          <t>-59,17; 29,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 266,63</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 5,93</t>
+          <t>-15,41; 6,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 11,89</t>
+          <t>-9,44; 12,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 16,31</t>
+          <t>-5,17; 16,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,51; 7,86</t>
+          <t>-41,51; 9,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 9,89</t>
+          <t>-22,34; 12,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 20,51</t>
+          <t>-14,2; 21,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 26,65</t>
+          <t>-7,05; 26,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-83,91; 35,02</t>
+          <t>-84,77; 38,56</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 10,87</t>
+          <t>-5,05; 10,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 4,78</t>
+          <t>-10,46; 4,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 5,72</t>
+          <t>-9,52; 5,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 20,99</t>
+          <t>-12,14; 21,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 18,41</t>
+          <t>-7,27; 17,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 6,99</t>
+          <t>-14,03; 6,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 8,84</t>
+          <t>-13,11; 7,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,33; 147,28</t>
+          <t>-46,55; 171,91</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 9,12</t>
+          <t>-10,15; 8,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 7,47</t>
+          <t>-10,12; 7,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 14,1</t>
+          <t>-5,36; 13,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,01; 31,12</t>
+          <t>-15,7; 31,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 15,73</t>
+          <t>-14,69; 14,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 11,72</t>
+          <t>-14,14; 12,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 24,94</t>
+          <t>-8,18; 23,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,49; 93,58</t>
+          <t>-30,2; 109,47</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 1,9</t>
+          <t>-15,18; 1,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 6,57</t>
+          <t>-9,81; 7,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 6,13</t>
+          <t>-10,61; 5,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 31,66</t>
+          <t>-11,38; 31,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 3,44</t>
+          <t>-22,52; 2,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,47; 11,71</t>
+          <t>-14,96; 12,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,98; 10,12</t>
+          <t>-15,82; 9,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 212,37</t>
+          <t>-32,12; 209,56</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 2,9</t>
+          <t>-5,82; 2,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 3,62</t>
+          <t>-5,16; 3,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 4,17</t>
+          <t>-4,25; 4,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 15,96</t>
+          <t>-6,1; 16,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 4,64</t>
+          <t>-8,78; 4,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 5,72</t>
+          <t>-7,67; 5,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 6,57</t>
+          <t>-6,21; 7,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 62,28</t>
+          <t>-17,3; 60,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A03-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,74</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,92</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,46</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-15,91</t>
+          <t>-16,99</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-24,38%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-27,2%</t>
+          <t>-36,88%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 42,95</t>
+          <t>-9,78; 9,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 47,56</t>
+          <t>-4,89; 15,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-40,48; 13,65</t>
+          <t>-7,53; 12,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-69,54; 44,93</t>
+          <t>-44,03; 9,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 111,05</t>
+          <t>-14,67; 16,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 121,17</t>
+          <t>-7,36; 26,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-59,17; 29,75</t>
+          <t>-10,54; 19,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 266,63</t>
+          <t>-73,05; 32,99</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,38</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,01%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>-4,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>-2,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-42,43%</t>
+          <t>19,93%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 6,93</t>
+          <t>-5,91; 11,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 12,3</t>
+          <t>-10,26; 4,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 16,24</t>
+          <t>-9,38; 6,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,51; 9,75</t>
+          <t>-11,59; 20,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 12,05</t>
+          <t>-8,42; 18,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 21,27</t>
+          <t>-13,51; 6,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 26,7</t>
+          <t>-12,86; 9,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-84,77; 38,56</t>
+          <t>-45,72; 150,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>8,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>-1,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,03%</t>
+          <t>-1,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,29%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>18,71%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 10,49</t>
+          <t>-10,07; 7,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 4,21</t>
+          <t>-9,78; 7,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 5,06</t>
+          <t>-4,75; 12,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 21,93</t>
+          <t>-16,05; 33,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 17,61</t>
+          <t>-14,7; 12,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 6,07</t>
+          <t>-13,51; 12,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 7,82</t>
+          <t>-7,27; 23,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,55; 171,91</t>
+          <t>-31,56; 96,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-6,78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,25</t>
+          <t>12,32</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>-10,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>-2,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>-3,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>46,89%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 8,6</t>
+          <t>-14,62; 1,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 7,83</t>
+          <t>-9,49; 7,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 13,42</t>
+          <t>-10,13; 6,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 31,79</t>
+          <t>-8,83; 32,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 14,46</t>
+          <t>-21,09; 2,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 12,49</t>
+          <t>-14,88; 12,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 23,59</t>
+          <t>-15,04; 11,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 109,47</t>
+          <t>-26,36; 217,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,78</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,06</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-10,45%</t>
+          <t>-2,41%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,26%</t>
+          <t>-0,92%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,61%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>46,67%</t>
+          <t>15,65%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 1,8</t>
+          <t>-5,96; 2,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 7,17</t>
+          <t>-4,94; 3,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 5,8</t>
+          <t>-3,55; 4,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 31,95</t>
+          <t>-6,06; 16,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,52; 2,8</t>
+          <t>-9,02; 4,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 12,77</t>
+          <t>-7,28; 5,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 9,61</t>
+          <t>-5,35; 7,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-32,12; 209,56</t>
+          <t>-16,91; 61,33</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,55</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,96</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-2,41%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-0,92%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,27%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>15,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-5,82; 2,86</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-5,16; 3,72</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-4,25; 4,57</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-6,1; 16,33</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-8,78; 4,57</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-7,67; 5,81</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-6,21; 7,27</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-17,3; 60,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
